--- a/Guru99Bank/3 - Design & Execution/2 - Integration Testing/BugTracker.xlsx
+++ b/Guru99Bank/3 - Design & Execution/2 - Integration Testing/BugTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\0 - Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99Bank\3 - Design &amp; Execution\2 - Integration Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D54F8F-A1FE-43A4-B04D-E87A734D2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC255430-239B-4189-B8E5-54C8AC7313D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Open bugs</t>
   </si>
   <si>
@@ -88,13 +82,192 @@
   </si>
   <si>
     <t>Total Bugs</t>
+  </si>
+  <si>
+    <t>bug_1</t>
+  </si>
+  <si>
+    <t>bug_2</t>
+  </si>
+  <si>
+    <t>bug_3</t>
+  </si>
+  <si>
+    <t>bug_4</t>
+  </si>
+  <si>
+    <t>bug_5</t>
+  </si>
+  <si>
+    <t>bug_6</t>
+  </si>
+  <si>
+    <t>bug_7</t>
+  </si>
+  <si>
+    <t>bug_8</t>
+  </si>
+  <si>
+    <t>bug_9</t>
+  </si>
+  <si>
+    <t>bug_10</t>
+  </si>
+  <si>
+    <t>bug_11</t>
+  </si>
+  <si>
+    <t>bug_12</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>TC_integration_002</t>
+  </si>
+  <si>
+    <t>TC_integration_001</t>
+  </si>
+  <si>
+    <t>TC_integration_003</t>
+  </si>
+  <si>
+    <t>TC_integration_004</t>
+  </si>
+  <si>
+    <t>TC_integration_005</t>
+  </si>
+  <si>
+    <t>TC_integration_006</t>
+  </si>
+  <si>
+    <t>TC_integration_007</t>
+  </si>
+  <si>
+    <t>TC_integration_008</t>
+  </si>
+  <si>
+    <t>TC_integration_009</t>
+  </si>
+  <si>
+    <t>TC_integration_010</t>
+  </si>
+  <si>
+    <t>TC_integration_011</t>
+  </si>
+  <si>
+    <t>TC_integration_012</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v7</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>v9</t>
+  </si>
+  <si>
+    <t>v10</t>
+  </si>
+  <si>
+    <t>v11</t>
+  </si>
+  <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1 - enter the userID
+2 - click submit button
+3 - enter all required fields
+4 - click submit</t>
+  </si>
+  <si>
+    <t>message appears to the user that say the new customer is added successfully</t>
+  </si>
+  <si>
+    <t>Could not 
+connect: Access 
+denied for user 
+'root'@'localhost' 
+(using password: 
+NO)</t>
+  </si>
+  <si>
+    <t>message appears to the user that say theis email is used before, try with another email</t>
+  </si>
+  <si>
+    <t>message appears that say "customer info is updated successfully"</t>
+  </si>
+  <si>
+    <t>the new data that previously edited should be updated successfully and appears in the right field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - enter the userID
+2 - click submit button
+</t>
+  </si>
+  <si>
+    <t>message appears to the user that say "the userID is wrong"</t>
+  </si>
+  <si>
+    <t>message appears to the user that say "the data is not updated "</t>
+  </si>
+  <si>
+    <t>message appears to the user that say "the CUSTOMER DATA IS SUCCESSFULLY deleted "</t>
+  </si>
+  <si>
+    <t>message appears to the user that say "this customer id is not exist"</t>
+  </si>
+  <si>
+    <t>1 - enter UserID
+2 - choose the account type from the drop down list
+3 - enter the deposite value
+4 - click submit</t>
+  </si>
+  <si>
+    <t>message appears that say "account is created successfully"</t>
+  </si>
+  <si>
+    <t>1 - enter the required fields
+2 - click submit</t>
+  </si>
+  <si>
+    <t>mini statements is generated successfully and the user can see it</t>
+  </si>
+  <si>
+    <t>CONNECTION ERROR with the server</t>
+  </si>
+  <si>
+    <t>Fixed bugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +312,20 @@
       <color theme="0"/>
       <name val="Agency FB"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -307,7 +494,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,9 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -357,13 +541,82 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{287ACB87-6AE0-472B-A8D4-441F07C74D25}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{10DDB5CD-AB9E-48C2-8F86-1C77D55DD4FC}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="double">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -444,32 +697,41 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -544,53 +806,32 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -825,9 +1066,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$E$8:$G$8</c:f>
+              <c:f>Dashboard!$E$8:$H$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Total Bugs</c:v>
                 </c:pt>
@@ -837,23 +1078,29 @@
                 <c:pt idx="2">
                   <c:v>Closed bugs</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fixed bugs</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$E$9:$G$9</c:f>
+              <c:f>Dashboard!$E$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,6 +1164,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1081470751"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -934,6 +1182,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1634603471"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
@@ -973,6 +1222,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1081470751"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -1649,15 +1899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>138907</xdr:colOff>
+      <xdr:colOff>1267796</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>163514</xdr:rowOff>
+      <xdr:rowOff>193752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>297657</xdr:colOff>
+      <xdr:colOff>1426546</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>112714</xdr:rowOff>
+      <xdr:rowOff>142952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1686,23 +1936,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5DBD661C-C8A6-4929-B18D-1E15F27CFBF1}" name="Table7" displayName="Table7" ref="D8:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="15">
-  <autoFilter ref="D8:G9" xr:uid="{5DBD661C-C8A6-4929-B18D-1E15F27CFBF1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5DBD661C-C8A6-4929-B18D-1E15F27CFBF1}" name="Table7" displayName="Table7" ref="D8:H9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="D8:H9" xr:uid="{5DBD661C-C8A6-4929-B18D-1E15F27CFBF1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{382AC13C-536E-4A24-A61E-3A87B54A36B0}" name="#" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DA1A567A-4301-4354-9004-E6E0E0B30499}" name="Total Bugs" dataDxfId="13">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{382AC13C-536E-4A24-A61E-3A87B54A36B0}" name="#" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{DA1A567A-4301-4354-9004-E6E0E0B30499}" name="Total Bugs" dataDxfId="24">
       <calculatedColumnFormula>COUNTIF(Bugs!A:A,"*Bug*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{97194040-F3E2-448D-AC68-CC02A16D93F7}" name="Open bugs" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{97194040-F3E2-448D-AC68-CC02A16D93F7}" name="Open bugs" dataDxfId="23">
       <calculatedColumnFormula>COUNTIF(Bugs!B:B,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{193C1743-7E55-45BB-B973-D510DAAABA42}" name="Closed bugs" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{193C1743-7E55-45BB-B973-D510DAAABA42}" name="Closed bugs" dataDxfId="22">
       <calculatedColumnFormula>COUNTIF(Bugs!B:B,"Close")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C3CAC335-91C2-4914-AC40-B0974A8523E9}" name="Fixed bugs" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(Bugs!B:B,"Fixed")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1710,8 +1964,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="Normal" dataCellStyle="Style 2">
-  <autoFilter ref="A1:J4" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}" name="Table2" displayName="Table2" ref="A1:J13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Style 2">
+  <autoFilter ref="A1:J13" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1724,16 +1978,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F18F0091-3208-4E8E-8AE4-A1C50467C708}" name="ID" dataDxfId="25" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{913354B5-6410-4099-BC20-6D22D7CF3A67}" name="Status" dataDxfId="24" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{1145CC29-F835-49A6-B3FD-3491058DD1CC}" name="TC_ID" dataDxfId="23" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{1052D6E6-76C7-4C4A-A44E-BB5B98BCF96E}" name="Version" dataDxfId="22" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{593FEC15-9A84-4A43-B282-715043DCD664}" name="Describtion" dataDxfId="21" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{C6410553-6BC8-4D9D-AFE9-6933D29F7352}" name="Steps" dataDxfId="20" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{8317167B-00E9-48D4-A3FE-F76ED9D15499}" name="Expected" dataDxfId="19" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{2936C252-4BAE-44E0-A7CD-84F997BE7713}" name="Actual" dataDxfId="18" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{426ECECC-1703-4021-8B3F-D7E130D91F30}" name="Priority" dataDxfId="17" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{51272853-C6DA-46DC-83EB-F2D0C665B3E5}" name="Severity" dataDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{F18F0091-3208-4E8E-8AE4-A1C50467C708}" name="ID" dataDxfId="4" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{913354B5-6410-4099-BC20-6D22D7CF3A67}" name="Status" dataDxfId="19" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{1145CC29-F835-49A6-B3FD-3491058DD1CC}" name="TC_ID" dataDxfId="18" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{1052D6E6-76C7-4C4A-A44E-BB5B98BCF96E}" name="Version" dataDxfId="17" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{593FEC15-9A84-4A43-B282-715043DCD664}" name="Describtion" dataDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{C6410553-6BC8-4D9D-AFE9-6933D29F7352}" name="Steps" dataDxfId="3" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{8317167B-00E9-48D4-A3FE-F76ED9D15499}" name="Expected" dataDxfId="2" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{2936C252-4BAE-44E0-A7CD-84F997BE7713}" name="Actual" dataDxfId="1" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{426ECECC-1703-4021-8B3F-D7E130D91F30}" name="Priority" dataDxfId="15" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{51272853-C6DA-46DC-83EB-F2D0C665B3E5}" name="Severity" dataDxfId="14" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2002,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:G18"/>
+  <dimension ref="A4:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
@@ -2017,80 +2271,89 @@
     <col min="10" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+    <row r="4" spans="1:8" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+    <row r="5" spans="1:8" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
-    <row r="8" spans="1:7" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="1:8" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13">
+        <f>COUNTIF(Bugs!A:A,"*Bug*")</f>
         <v>12</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14">
-        <f>COUNTIF(Bugs!A:A,"*Bug*")</f>
+      <c r="F9" s="13">
+        <f>COUNTIF(Bugs!B:B,"Open")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="14">
-        <f>COUNTIF(Bugs!B:B,"Open")</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <f>COUNTIF(Bugs!B:B,"Close")</f>
         <v>0</v>
       </c>
+      <c r="H9" s="13">
+        <f>COUNTIF(Bugs!B:B,"Fixed")</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="F16" s="10"/>
+    <row r="16" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="D4:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:G9">
+  <conditionalFormatting sqref="E9:H9">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2110,28 +2373,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C910716-8D9C-49EF-A4F1-78A2A50B9BEA}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="44" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.54296875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6328125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.7265625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2163,162 +2425,469 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
+    <row r="2" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+    <row r="4" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="F4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+    <row r="5" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+    <row r="6" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+    <row r="7" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+    <row r="8" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+    <row r="9" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+    <row r="10" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="4"/>
+    <row r="11" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="209" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="21" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="B2:B19">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10" xr:uid="{DFEB4F64-092D-4DE4-BA81-84CC212C8DAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B19" xr:uid="{DFEB4F64-092D-4DE4-BA81-84CC212C8DAC}">
       <formula1>"Open,Fixed,Close"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J10" xr:uid="{AEEB1CC4-67A9-460C-AC2F-E5A3C87AD713}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J19" xr:uid="{AEEB1CC4-67A9-460C-AC2F-E5A3C87AD713}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
